--- a/WIE_Records.xlsx
+++ b/WIE_Records.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="User Record" sheetId="1" r:id="rId1"/>
+    <sheet name="Choice Chart" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -380,7 +381,9 @@
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="360.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.00390625" customWidth="1"/>
+    <col min="3" max="3" width="60.00390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -407,7 +410,10 @@
         <v>Adam</v>
       </c>
       <c r="B3" t="str">
-        <v>Fri Jul 24 2020 15:08:36 GMT+0800 (GMT+08:00)</v>
+        <v>Thu Aug 06 2020 15:00:32 GMT+0800 (GMT+08:00)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>A. What jobs are suitable for WIE?</v>
       </c>
     </row>
     <row r="4">
@@ -415,7 +421,10 @@
         <v>Madman_0001T</v>
       </c>
       <c r="B4" t="str">
-        <v>Fri Jul 24 2020 16:05:53 GMT+0800 (GMT+08:00)</v>
+        <v>Thu Aug 06 2020 15:11:11 GMT+0800 (GMT+08:00)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>B. I have no or less than 300 hrs job experience. I am looking for a job.</v>
       </c>
     </row>
     <row r="5">
@@ -423,10 +432,10 @@
         <v>Baldi(計錯數激嬲我就教仔)</v>
       </c>
       <c r="B5" t="str">
-        <v>Fri Jul 24 2020 20:38:56 GMT+0800 (GMT+08:00)</v>
+        <v>Mon Aug 10 2020 02:10:42 GMT+0800 (GMT+08:00)</v>
       </c>
       <c r="C5" t="str">
-        <v>E. I have 300 hrs, or more, of job experience.</v>
+        <v>C. I have no or less than 300 hrs job experience. I just received an offer.</v>
       </c>
     </row>
   </sheetData>
@@ -434,4 +443,17 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/WIE_Records.xlsx
+++ b/WIE_Records.xlsx
@@ -432,7 +432,7 @@
         <v>Baldi(計錯數激嬲我就教仔)</v>
       </c>
       <c r="B5" t="str">
-        <v>Mon Aug 10 2020 02:10:42 GMT+0800 (GMT+08:00)</v>
+        <v>Mon Aug 10 2020 15:08:17 GMT+0800 (GMT+08:00)</v>
       </c>
       <c r="C5" t="str">
         <v>C. I have no or less than 300 hrs job experience. I just received an offer.</v>
